--- a/biology/Zoologie/Charaxes_eurialus/Charaxes_eurialus.xlsx
+++ b/biology/Zoologie/Charaxes_eurialus/Charaxes_eurialus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes eurialus est une espèce d'insectes lépidoptères  appartenant à la famille des Nymphalidae, à la sous-famille des Charaxinae et au genre Charaxes.
 </t>
@@ -511,10 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Charaxes  eurialus a été nommé par Pieter Cramer en 1779[1].
-Noms vernaculaires</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charaxes  eurialus a été nommé par Pieter Cramer en 1779.
+</t>
         </is>
       </c>
     </row>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Charaxes eurialus est un grand papillon marron foncé presque noir aux ailes antérieures concaves ornées d'une bande transversale jaune et aux ailes postérieures avec une queue, une bande marginale blanche, une ligne submarginale de taches noires pupillées de blanc puis une bande bleue.
 </t>
@@ -570,12 +586,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Indonésie à Ambon, Serang et Saparua.
+Sur les autres projets Wikimedia :
+Charaxes eurialus, sur Wikimedia CommonsCharaxes eurialus, sur Wikispecies
+</t>
         </is>
       </c>
     </row>
@@ -605,12 +626,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est présent en Indonésie à Ambon, Serang et Saparua[1].
-Sur les autres projets Wikimedia :
-Charaxes eurialus, sur Wikimedia CommonsCharaxes eurialus, sur Wikispecies
-Biotope
-Protection
-Pas de protection : il est en vente libre sur internet.
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de protection : il est en vente libre sur internet.
 </t>
         </is>
       </c>
